--- a/module5_document/audit/Câu hỏi audit module 5.xlsx
+++ b/module5_document/audit/Câu hỏi audit module 5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\codegym\module_5\module5_document\audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2383771-ABD7-4235-B1CA-E6B66F5682E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B721FEB-CFE2-4293-92E5-0F46A347252E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>TypeScript là gì?</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>bài 3</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>router</t>
   </si>
 </sst>
 </file>
@@ -620,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>28</v>
       </c>
@@ -869,7 +875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>29</v>
       </c>
@@ -877,7 +883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>30</v>
       </c>
@@ -885,7 +891,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
       <c r="B36" s="3">
         <v>31</v>
       </c>
@@ -893,7 +902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>32</v>
       </c>
@@ -901,7 +910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>33</v>
       </c>
@@ -909,7 +918,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
       <c r="B39" s="3">
         <v>34</v>
       </c>
@@ -917,7 +929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>35</v>
       </c>
@@ -925,7 +937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>36</v>
       </c>
@@ -933,7 +945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>37</v>
       </c>
@@ -941,7 +953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>38</v>
       </c>
@@ -949,7 +961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>39</v>
       </c>
@@ -957,7 +969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>40</v>
       </c>
@@ -965,7 +977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>41</v>
       </c>
@@ -973,7 +985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>42</v>
       </c>
@@ -981,7 +993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>43</v>
       </c>
